--- a/Crawling/crawling_data/day_genie/day_genie_20220110.xlsx
+++ b/Crawling/crawling_data/day_genie/day_genie_20220110.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="233">
   <si>
     <t>날짜</t>
   </si>
@@ -229,8 +229,7 @@
     <t>어떻게 이별까지 사랑하겠어, 널 사랑하는 거지</t>
   </si>
   <si>
-    <t>19금
-                                    Peaches (Feat. Daniel Caesar &amp; Giveon)</t>
+    <t>Peaches (Feat. Daniel Caesar &amp; Giveon)</t>
   </si>
   <si>
     <t>사이렌 Remix (Feat. UNEDUCATED KID &amp; Paul Blanco)</t>
@@ -293,8 +292,7 @@
     <t>12 : 45 (Stripped)</t>
   </si>
   <si>
-    <t>19금
-                                    abcdefu</t>
+    <t>abcdefu</t>
   </si>
   <si>
     <t>취기를 빌려 (취향저격 그녀 X 산들)</t>
@@ -691,9 +689,6 @@
   </si>
   <si>
     <t>슬기로운 의사생활 OST Part 3 (tvN 목요드라마)</t>
-  </si>
-  <si>
-    <t>abcdefu</t>
   </si>
   <si>
     <t>MAP OF THE SOUL : PERSONA</t>
@@ -2575,7 +2570,7 @@
         <v>164</v>
       </c>
       <c r="E88" t="s">
-        <v>225</v>
+        <v>92</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2609,7 +2604,7 @@
         <v>133</v>
       </c>
       <c r="E90" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2643,7 +2638,7 @@
         <v>166</v>
       </c>
       <c r="E92" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2677,7 +2672,7 @@
         <v>168</v>
       </c>
       <c r="E94" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2694,7 +2689,7 @@
         <v>169</v>
       </c>
       <c r="E95" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2711,7 +2706,7 @@
         <v>170</v>
       </c>
       <c r="E96" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2762,7 +2757,7 @@
         <v>173</v>
       </c>
       <c r="E99" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2779,7 +2774,7 @@
         <v>139</v>
       </c>
       <c r="E100" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2796,7 +2791,7 @@
         <v>174</v>
       </c>
       <c r="E101" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
